--- a/CH-054 Missing Values.xlsx
+++ b/CH-054 Missing Values.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB0FF048-E940-4119-93E2-67FC532630E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A46ED349-5F10-4EA1-8886-77C23C22C75D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -94,7 +94,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.000;\-0.000;0.000;@"/>
+    <numFmt numFmtId="164" formatCode="0.000;\-0.000;0.000;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -254,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -286,12 +286,10 @@
     <xf numFmtId="9" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1644,8 +1642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3642244C-49B2-45DE-BFD4-6421AF9E9E19}">
   <dimension ref="A1:U98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F63" sqref="F63"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2143,7 +2141,7 @@
     </row>
     <row r="25" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
-      <c r="B25" s="13" cm="1">
+      <c r="B25" s="11" cm="1">
         <f t="array" ref="B25:D60">_xlfn.LET(
 _xlpm.c,_xlfn.UNIQUE(C3:C21),
 _xlpm.q,_xlfn.REDUCE("",_xlpm.c,_xlfn.LAMBDA(_xlpm.a,_xlpm.v,_xlfn.LET(_xlpm.t,_xlfn._xlws.FILTER(B3:C21,C3:C21=_xlpm.v),_xlpm.mx,MAX(_xlfn.TAKE(_xlpm.t,,1)),_xlpm.mn,MIN(_xlfn.TAKE(_xlpm.t,,1)),_xlfn.VSTACK(_xlpm.a,_xlfn.LET(_xlpm.zz,_xlfn.UNIQUE(EOMONTH(_xlfn.SEQUENCE(_xlpm.mx-_xlpm.mn+1,1,_xlpm.mn),0)),_xlpm.yy,_xlfn.MAKEARRAY(LEN(_xlpm.zz),1,_xlfn.LAMBDA(_xlpm.r,_xlpm.c,_xlpm.v)),_xlfn.HSTACK(_xlpm.zz,_xlpm.yy)))))),
@@ -2155,10 +2153,10 @@
 )</f>
         <v>44957</v>
       </c>
-      <c r="C25" t="str">
+      <c r="C25" s="8" t="str">
         <v>A</v>
       </c>
-      <c r="D25" s="16">
+      <c r="D25" s="10">
         <v>0.05</v>
       </c>
       <c r="H25" s="11">
@@ -2173,13 +2171,13 @@
     </row>
     <row r="26" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
-      <c r="B26" s="13">
+      <c r="B26" s="11">
         <v>44985</v>
       </c>
-      <c r="C26" t="str">
+      <c r="C26" s="8" t="str">
         <v>A</v>
       </c>
-      <c r="D26" s="16">
+      <c r="D26" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="H26" s="11">
@@ -2194,13 +2192,13 @@
     </row>
     <row r="27" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
-      <c r="B27" s="13">
+      <c r="B27" s="11">
         <v>45016</v>
       </c>
-      <c r="C27" t="str">
+      <c r="C27" s="8" t="str">
         <v>A</v>
       </c>
-      <c r="D27" s="16">
+      <c r="D27" s="10">
         <v>0.09</v>
       </c>
       <c r="H27" s="11">
@@ -2215,13 +2213,13 @@
     </row>
     <row r="28" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
-      <c r="B28" s="13">
+      <c r="B28" s="11">
         <v>45046</v>
       </c>
-      <c r="C28" t="str">
+      <c r="C28" s="8" t="str">
         <v>A</v>
       </c>
-      <c r="D28" s="16">
+      <c r="D28" s="12">
         <v>0.09</v>
       </c>
       <c r="H28" s="11">
@@ -2236,13 +2234,13 @@
     </row>
     <row r="29" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
-      <c r="B29" s="13">
+      <c r="B29" s="11">
         <v>45077</v>
       </c>
-      <c r="C29" t="str">
+      <c r="C29" s="8" t="str">
         <v>A</v>
       </c>
-      <c r="D29" s="16">
+      <c r="D29" s="12">
         <v>0.09</v>
       </c>
       <c r="H29" s="11">
@@ -2257,13 +2255,13 @@
     </row>
     <row r="30" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
-      <c r="B30" s="13">
+      <c r="B30" s="11">
         <v>45107</v>
       </c>
-      <c r="C30" t="str">
+      <c r="C30" s="8" t="str">
         <v>A</v>
       </c>
-      <c r="D30" s="16">
+      <c r="D30" s="12">
         <v>0.09</v>
       </c>
       <c r="H30" s="11">
@@ -2278,13 +2276,13 @@
     </row>
     <row r="31" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
-      <c r="B31" s="13">
+      <c r="B31" s="11">
         <v>45138</v>
       </c>
-      <c r="C31" t="str">
+      <c r="C31" s="8" t="str">
         <v>A</v>
       </c>
-      <c r="D31" s="16">
+      <c r="D31" s="10">
         <v>0.24</v>
       </c>
       <c r="H31" s="11">
@@ -2298,13 +2296,13 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B32" s="13">
+      <c r="B32" s="11">
         <v>45169</v>
       </c>
-      <c r="C32" t="str">
+      <c r="C32" s="8" t="str">
         <v>A</v>
       </c>
-      <c r="D32" s="16">
+      <c r="D32" s="12">
         <v>0.24</v>
       </c>
       <c r="H32" s="11">
@@ -2319,13 +2317,13 @@
     </row>
     <row r="33" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
-      <c r="B33" s="13">
+      <c r="B33" s="11">
         <v>45199</v>
       </c>
-      <c r="C33" t="str">
+      <c r="C33" s="8" t="str">
         <v>A</v>
       </c>
-      <c r="D33" s="16">
+      <c r="D33" s="10">
         <v>0.28000000000000003</v>
       </c>
       <c r="H33" s="11">
@@ -2339,13 +2337,13 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B34" s="13">
+      <c r="B34" s="11">
         <v>45230</v>
       </c>
-      <c r="C34" t="str">
+      <c r="C34" s="8" t="str">
         <v>A</v>
       </c>
-      <c r="D34" s="16">
+      <c r="D34" s="12">
         <v>0.28000000000000003</v>
       </c>
       <c r="H34" s="11">
@@ -2360,13 +2358,13 @@
     </row>
     <row r="35" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
-      <c r="B35" s="13">
+      <c r="B35" s="11">
         <v>45260</v>
       </c>
-      <c r="C35" t="str">
+      <c r="C35" s="8" t="str">
         <v>A</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D35" s="12">
         <v>0.28000000000000003</v>
       </c>
       <c r="H35" s="11">
@@ -2381,13 +2379,13 @@
     </row>
     <row r="36" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="5"/>
-      <c r="B36" s="13">
+      <c r="B36" s="11">
         <v>45291</v>
       </c>
-      <c r="C36" t="str">
+      <c r="C36" s="8" t="str">
         <v>A</v>
       </c>
-      <c r="D36" s="16">
+      <c r="D36" s="10">
         <v>0.35</v>
       </c>
       <c r="H36" s="11">
@@ -2402,13 +2400,13 @@
     </row>
     <row r="37" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
-      <c r="B37" s="13">
+      <c r="B37" s="11">
         <v>44957</v>
       </c>
-      <c r="C37" t="str">
+      <c r="C37" s="8" t="str">
         <v>B</v>
       </c>
-      <c r="D37" s="16">
+      <c r="D37" s="10">
         <v>0.02</v>
       </c>
       <c r="H37" s="11">
@@ -2423,13 +2421,13 @@
     </row>
     <row r="38" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
-      <c r="B38" s="13">
+      <c r="B38" s="11">
         <v>44985</v>
       </c>
-      <c r="C38" t="str">
+      <c r="C38" s="8" t="str">
         <v>B</v>
       </c>
-      <c r="D38" s="16">
+      <c r="D38" s="10">
         <v>0.05</v>
       </c>
       <c r="H38" s="11">
@@ -2442,250 +2440,250 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B39" s="13">
+    <row r="39" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B39" s="11">
         <v>45016</v>
       </c>
-      <c r="C39" t="str">
+      <c r="C39" s="8" t="str">
         <v>B</v>
       </c>
-      <c r="D39" s="16">
+      <c r="D39" s="12">
         <v>0.05</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B40" s="13">
+    <row r="40" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B40" s="11">
         <v>45046</v>
       </c>
-      <c r="C40" t="str">
+      <c r="C40" s="8" t="str">
         <v>B</v>
       </c>
-      <c r="D40" s="16">
+      <c r="D40" s="12">
         <v>0.05</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B41" s="13">
+    <row r="41" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B41" s="11">
         <v>45077</v>
       </c>
-      <c r="C41" t="str">
+      <c r="C41" s="8" t="str">
         <v>B</v>
       </c>
-      <c r="D41" s="16">
+      <c r="D41" s="10">
         <v>0.16000000000000003</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B42" s="13">
+    <row r="42" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B42" s="11">
         <v>45107</v>
       </c>
-      <c r="C42" t="str">
+      <c r="C42" s="8" t="str">
         <v>B</v>
       </c>
-      <c r="D42" s="16">
+      <c r="D42" s="10">
         <v>0.21000000000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B43" s="13">
+    <row r="43" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B43" s="11">
         <v>45138</v>
       </c>
-      <c r="C43" t="str">
+      <c r="C43" s="8" t="str">
         <v>B</v>
       </c>
-      <c r="D43" s="16">
+      <c r="D43" s="12">
         <v>0.21000000000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B44" s="13">
+    <row r="44" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B44" s="11">
         <v>45169</v>
       </c>
-      <c r="C44" t="str">
+      <c r="C44" s="8" t="str">
         <v>B</v>
       </c>
-      <c r="D44" s="16">
+      <c r="D44" s="10">
         <v>0.24000000000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B45" s="13">
+    <row r="45" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B45" s="11">
         <v>45199</v>
       </c>
-      <c r="C45" t="str">
+      <c r="C45" s="8" t="str">
         <v>B</v>
       </c>
-      <c r="D45" s="16">
+      <c r="D45" s="12">
         <v>0.24000000000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B46" s="13">
+    <row r="46" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B46" s="11">
         <v>45230</v>
       </c>
-      <c r="C46" t="str">
+      <c r="C46" s="8" t="str">
         <v>B</v>
       </c>
-      <c r="D46" s="16">
+      <c r="D46" s="12">
         <v>0.24000000000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B47" s="13">
+    <row r="47" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B47" s="11">
         <v>45260</v>
       </c>
-      <c r="C47" t="str">
+      <c r="C47" s="8" t="str">
         <v>B</v>
       </c>
-      <c r="D47" s="16">
+      <c r="D47" s="12">
         <v>0.24000000000000002</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B48" s="13">
+    <row r="48" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B48" s="11">
         <v>45291</v>
       </c>
-      <c r="C48" t="str">
+      <c r="C48" s="8" t="str">
         <v>B</v>
       </c>
-      <c r="D48" s="16">
+      <c r="D48" s="10">
         <v>0.41000000000000003</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="13">
+    <row r="49" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B49" s="11">
         <v>44957</v>
       </c>
-      <c r="C49" t="str">
+      <c r="C49" s="8" t="str">
         <v>C</v>
       </c>
-      <c r="D49" s="16">
+      <c r="D49" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="13">
+    <row r="50" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B50" s="11">
         <v>44985</v>
       </c>
-      <c r="C50" t="str">
+      <c r="C50" s="8" t="str">
         <v>C</v>
       </c>
-      <c r="D50" s="16">
+      <c r="D50" s="12">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B51" s="13">
+    <row r="51" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B51" s="11">
         <v>45016</v>
       </c>
-      <c r="C51" t="str">
+      <c r="C51" s="8" t="str">
         <v>C</v>
       </c>
-      <c r="D51" s="16">
+      <c r="D51" s="10">
         <v>0.22000000000000003</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B52" s="13">
+    <row r="52" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B52" s="11">
         <v>45046</v>
       </c>
-      <c r="C52" t="str">
+      <c r="C52" s="8" t="str">
         <v>C</v>
       </c>
-      <c r="D52" s="16">
+      <c r="D52" s="12">
         <v>0.22000000000000003</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B53" s="13">
+    <row r="53" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B53" s="11">
         <v>45077</v>
       </c>
-      <c r="C53" t="str">
+      <c r="C53" s="8" t="str">
         <v>C</v>
       </c>
-      <c r="D53" s="16">
+      <c r="D53" s="10">
         <v>0.34</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B54" s="13">
+    <row r="54" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B54" s="11">
         <v>45107</v>
       </c>
-      <c r="C54" t="str">
+      <c r="C54" s="8" t="str">
         <v>C</v>
       </c>
-      <c r="D54" s="16">
+      <c r="D54" s="12">
         <v>0.34</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B55" s="13">
+    <row r="55" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B55" s="11">
         <v>45138</v>
       </c>
-      <c r="C55" t="str">
+      <c r="C55" s="8" t="str">
         <v>C</v>
       </c>
-      <c r="D55" s="16">
+      <c r="D55" s="10">
         <v>0.44</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="13">
+    <row r="56" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B56" s="11">
         <v>45169</v>
       </c>
-      <c r="C56" t="str">
+      <c r="C56" s="8" t="str">
         <v>C</v>
       </c>
-      <c r="D56" s="16">
+      <c r="D56" s="12">
         <v>0.44</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="13">
+    <row r="57" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B57" s="11">
         <v>45199</v>
       </c>
-      <c r="C57" t="str">
+      <c r="C57" s="8" t="str">
         <v>C</v>
       </c>
-      <c r="D57" s="16">
+      <c r="D57" s="10">
         <v>0.6</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="13">
+    <row r="58" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B58" s="11">
         <v>45230</v>
       </c>
-      <c r="C58" t="str">
+      <c r="C58" s="8" t="str">
         <v>C</v>
       </c>
-      <c r="D58" s="16">
+      <c r="D58" s="12">
         <v>0.6</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="13">
+    <row r="59" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B59" s="11">
         <v>45260</v>
       </c>
-      <c r="C59" t="str">
+      <c r="C59" s="8" t="str">
         <v>C</v>
       </c>
-      <c r="D59" s="16">
+      <c r="D59" s="10">
         <v>0.72</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="13">
+    <row r="60" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B60" s="11">
         <v>45291</v>
       </c>
-      <c r="C60" t="str">
+      <c r="C60" s="8" t="str">
         <v>C</v>
       </c>
-      <c r="D60" s="16">
+      <c r="D60" s="10">
         <v>0.73</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="15"/>
+      <c r="B61" s="13"/>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F63" t="b" cm="1">

--- a/CH-054 Missing Values.xlsx
+++ b/CH-054 Missing Values.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A46ED349-5F10-4EA1-8886-77C23C22C75D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD281679-3449-4C56-8C44-9584DD385850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="12">
   <si>
     <t>Question Tables</t>
   </si>
@@ -87,6 +87,18 @@
   </si>
   <si>
     <t>Actual Progress</t>
+  </si>
+  <si>
+    <t>The key thing I learned here is how to do</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a fill-down using a function. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It also was a good use of a multidimensional </t>
+  </si>
+  <si>
+    <t>XLOOKUP</t>
   </si>
 </sst>
 </file>
@@ -1642,8 +1654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3642244C-49B2-45DE-BFD4-6421AF9E9E19}">
   <dimension ref="A1:U98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2159,6 +2171,9 @@
       <c r="D25" s="10">
         <v>0.05</v>
       </c>
+      <c r="F25" t="s">
+        <v>8</v>
+      </c>
       <c r="H25" s="11">
         <v>45260</v>
       </c>
@@ -2180,6 +2195,9 @@
       <c r="D26" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
+      <c r="F26" t="s">
+        <v>9</v>
+      </c>
       <c r="H26" s="11">
         <v>45291</v>
       </c>
@@ -2201,6 +2219,9 @@
       <c r="D27" s="10">
         <v>0.09</v>
       </c>
+      <c r="F27" t="s">
+        <v>10</v>
+      </c>
       <c r="H27" s="11">
         <v>44957</v>
       </c>
@@ -2221,6 +2242,9 @@
       </c>
       <c r="D28" s="12">
         <v>0.09</v>
+      </c>
+      <c r="F28" t="s">
+        <v>11</v>
       </c>
       <c r="H28" s="11">
         <v>44985</v>

--- a/CH-054 Missing Values.xlsx
+++ b/CH-054 Missing Values.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD281679-3449-4C56-8C44-9584DD385850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60ABA6E-4CB1-45B2-B0C8-39E783A1F9CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="13">
   <si>
     <t>Question Tables</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>XLOOKUP</t>
+  </si>
+  <si>
+    <t>See CH-060 for a related problem</t>
   </si>
 </sst>
 </file>
@@ -1654,8 +1657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3642244C-49B2-45DE-BFD4-6421AF9E9E19}">
   <dimension ref="A1:U98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1695,6 +1698,9 @@
       <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="H2" s="9" t="s">
         <v>2</v>
       </c>
